--- a/Hicks-Henne deformation of 2d airfoil/Deformed_airfoil.xlsx
+++ b/Hicks-Henne deformation of 2d airfoil/Deformed_airfoil.xlsx
@@ -2,28 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="24" yWindow="612" windowWidth="23016" windowHeight="11748" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,12 +41,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -55,14 +74,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,12 +456,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>y_modified</t>
         </is>
@@ -450,647 +472,279 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00126</v>
+        <v>6.936388994811091e-34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.998459</v>
+        <v>0.95</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001476000331824911</v>
+        <v>0.01489858206904746</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9938439999999999</v>
+        <v>0.9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002120021118838957</v>
+        <v>0.02790353498802815</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.986185</v>
+        <v>0.8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003182237884273549</v>
+        <v>0.05213279969814216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.975528</v>
+        <v>0.7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.004643314467464848</v>
+        <v>0.07405285077887241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.96194</v>
+        <v>0.6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.006482897062644657</v>
+        <v>0.09363280437309576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.945503</v>
+        <v>0.5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.008672161224121445</v>
+        <v>0.1098940636005646</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.92632</v>
+        <v>0.4</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01118321992713337</v>
+        <v>0.1218662935592877</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.904508</v>
+        <v>0.3</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01398612493190765</v>
+        <v>0.1268192775555247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.880203</v>
+        <v>0.25</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01705008975407461</v>
+        <v>0.1255749178323972</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.853553</v>
+        <v>0.2</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02034058143488718</v>
+        <v>0.121285993191269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.824724</v>
+        <v>0.15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02381992391624196</v>
+        <v>0.1133421155777019</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.793893</v>
+        <v>0.1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02743840491847103</v>
+        <v>0.1004071474681915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.761249</v>
+        <v>0.075</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03113215291474528</v>
+        <v>0.091411885561458</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7269949999999999</v>
+        <v>0.05</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03481468329546268</v>
+        <v>0.07948214711475238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.691342</v>
+        <v>0.025</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03837069414521422</v>
+        <v>0.06239770800746696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.654508</v>
+        <v>0.0125</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04165404434358113</v>
+        <v>0.04892894847021007</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.616723</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04449325775563855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.578217</v>
+        <v>0.0125</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04669729608562159</v>
+        <v>-0.02298947610838754</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.53923</v>
+        <v>0.025</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04807981388752965</v>
+        <v>-0.03105009546170348</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04848440240862341</v>
+        <v>-0.03949734212487232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.46077</v>
+        <v>0.075</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04781471044023768</v>
+        <v>-0.04397732424326502</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.421783</v>
+        <v>0.1</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04606521007538745</v>
+        <v>-0.04665863403088763</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.383277</v>
+        <v>0.15</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04334842522584276</v>
+        <v>-0.04876545588705753</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.345492</v>
+        <v>0.2</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03989960355195338</v>
+        <v>-0.0481067621567832</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.308658</v>
+        <v>0.25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03605921877552605</v>
+        <v>-0.04548856456122149</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.273005</v>
+        <v>0.3</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03223964336248578</v>
+        <v>-0.04211466742701554</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.238751</v>
+        <v>0.4</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02885831005428522</v>
+        <v>-0.03408346797569545</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.206107</v>
+        <v>0.5</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02625936632146956</v>
+        <v>-0.0257920455368122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.175276</v>
+        <v>0.6</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02463830155143734</v>
+        <v>-0.01763571570999346</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.146447</v>
+        <v>0.7</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02397934246926508</v>
+        <v>-0.01071474613683524</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.119797</v>
+        <v>0.8</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02403411441368591</v>
+        <v>-0.005699371030665631</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.09549199999999999</v>
+        <v>0.9</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02434884529554731</v>
+        <v>-0.002626322793794008</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.07368</v>
+        <v>0.95</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02435741716317019</v>
+        <v>-0.001703457931658606</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.054497</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0235247130186543</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>0.03806</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.02152091632547479</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>0.024472</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.01840116987029729</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>0.013815</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.01470757362775205</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>0.006156</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.01136049046378892</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>0.001541</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.008906243576456146</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>0</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>0.001541</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-0.004847756423543854</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>0.006156</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-0.01564550953621108</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>0.013815</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-0.02500042637224796</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>0.024472</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-0.0333848301297027</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>0.03806</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-0.04163908367452519</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>0.054497</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-0.0502092869813457</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>0.07368</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-0.05905258283682981</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>0.09549199999999999</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-0.06774915470445268</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>0.119797</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-0.0756738855863141</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>0.146447</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-0.0821866575307349</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>0.175276</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-0.08677969844856265</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>0.206107</v>
-      </c>
-      <c r="B54" t="n">
-        <v>-0.08916863367853047</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>0.238751</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-0.08932568994571478</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>0.273005</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-0.08745635663751423</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>0.308658</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-0.08394078122447396</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>0.345492</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-0.07925039644804663</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>0.383277</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-0.07386957477415723</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>0.421783</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.06823078992461253</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>0.46077</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-0.06266728955976233</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B62" t="n">
-        <v>-0.05739559759137659</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>0.53923</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-0.05252418611247035</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>0.578217</v>
-      </c>
-      <c r="B64" t="n">
-        <v>-0.0480687039143784</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>0.616723</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-0.04398074224436145</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>0.654508</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-0.04017995565641887</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>0.691342</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-0.03658130585478579</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>0.7269949999999999</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-0.03310931670453731</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>0.761249</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-0.02971384708525472</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>0.793893</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-0.02637159508152896</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>0.824724</v>
-      </c>
-      <c r="B71" t="n">
-        <v>-0.02308407608375804</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>0.853553</v>
-      </c>
-      <c r="B72" t="n">
-        <v>-0.01987341856511282</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>0.880203</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-0.01677791024592539</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>0.904508</v>
-      </c>
-      <c r="B74" t="n">
-        <v>-0.01384187506809235</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>0.92632</v>
-      </c>
-      <c r="B75" t="n">
-        <v>-0.01111478007286663</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>0.945503</v>
-      </c>
-      <c r="B76" t="n">
-        <v>-0.008643838775878557</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>0.96194</v>
-      </c>
-      <c r="B77" t="n">
-        <v>-0.006473102937355343</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>0.975528</v>
-      </c>
-      <c r="B78" t="n">
-        <v>-0.004640685532535153</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>0.986185</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-0.003181762115726451</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>0.9938439999999999</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-0.002119978881161043</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>0.998459</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-0.001475999668175089</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>1</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-0.00126</v>
+        <v>-3.299471521856087e-34</v>
       </c>
     </row>
   </sheetData>

--- a/Hicks-Henne deformation of 2d airfoil/Deformed_airfoil.xlsx
+++ b/Hicks-Henne deformation of 2d airfoil/Deformed_airfoil.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="24" yWindow="612" windowWidth="23016" windowHeight="11748" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,279 +472,647 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.936388994811091e-34</v>
+        <v>0.00126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.95</v>
+        <v>0.998459</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01489858206904746</v>
+        <v>0.001476333889201003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9</v>
+        <v>0.9938439999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02790353498802815</v>
+        <v>0.002125337068260748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8</v>
+        <v>0.986185</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05213279969814216</v>
+        <v>0.003208948377701005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7</v>
+        <v>0.975528</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07405285077887241</v>
+        <v>0.004726845787834165</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6</v>
+        <v>0.96194</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09363280437309576</v>
+        <v>0.00668402119748149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5</v>
+        <v>0.945503</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1098940636005646</v>
+        <v>0.00908211523504465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4</v>
+        <v>0.92632</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1218662935592877</v>
+        <v>0.01192724388427125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3</v>
+        <v>0.904508</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1268192775555247</v>
+        <v>0.01522544591879739</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.25</v>
+        <v>0.880203</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1255749178323972</v>
+        <v>0.01898232102286982</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2</v>
+        <v>0.853553</v>
       </c>
       <c r="B12" t="n">
-        <v>0.121285993191269</v>
+        <v>0.02319926111471215</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.15</v>
+        <v>0.824724</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1133421155777019</v>
+        <v>0.02787363714074887</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1</v>
+        <v>0.793893</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1004071474681915</v>
+        <v>0.03299086005392982</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.075</v>
+        <v>0.761249</v>
       </c>
       <c r="B15" t="n">
-        <v>0.091411885561458</v>
+        <v>0.03852384859357359</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.05</v>
+        <v>0.7269949999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07948214711475238</v>
+        <v>0.04442630530896738</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.025</v>
+        <v>0.691342</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06239770800746696</v>
+        <v>0.05062789965516801</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0125</v>
+        <v>0.654508</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04892894847021007</v>
+        <v>0.05703111215392148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>0.616723</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.06351093398096402</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0125</v>
+        <v>0.578217</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.02298947610838754</v>
+        <v>0.06991083669794433</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.025</v>
+        <v>0.53923</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.03105009546170348</v>
+        <v>0.07604921899626271</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.03949734212487232</v>
+        <v>0.08172417134448536</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.075</v>
+        <v>0.46077</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.04397732424326502</v>
+        <v>0.08671918650178619</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1</v>
+        <v>0.421783</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.04665863403088763</v>
+        <v>0.09081421746202267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.15</v>
+        <v>0.383277</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.04876545588705753</v>
+        <v>0.09380337452555637</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2</v>
+        <v>0.345492</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0481067621567832</v>
+        <v>0.09550514476739626</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.25</v>
+        <v>0.308658</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.04548856456122149</v>
+        <v>0.09577550572467908</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.3</v>
+        <v>0.273005</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.04211466742701554</v>
+        <v>0.09452645363743438</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4</v>
+        <v>0.238751</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.03408346797569545</v>
+        <v>0.09173446030778616</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.5</v>
+        <v>0.206107</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.0257920455368122</v>
+        <v>0.0874464056850444</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.6</v>
+        <v>0.175276</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.01763571570999346</v>
+        <v>0.08178522610095247</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7</v>
+        <v>0.146447</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.01071474613683524</v>
+        <v>0.07494342737709588</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8</v>
+        <v>0.119797</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.005699371030665631</v>
+        <v>0.06717454024458965</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9</v>
+        <v>0.09549199999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.002626322793794008</v>
+        <v>0.05877525087092676</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.95</v>
+        <v>0.07368</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.001703457931658606</v>
+        <v>0.05006512483005968</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
+        <v>0.054497</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.04136231091921833</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.03806</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.03294978193497399</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.024472</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.02505861721212721</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.013815</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.01784941770713892</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.006156</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01141753350478415</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.001541</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.005872683264668331</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.001541</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.007916731751757536</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.006156</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.01627153601609284</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.013815</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.02412849709361464</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.024472</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.03165366158023353</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.03806</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.03886242317256935</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.054497</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.04570804941243417</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.07368</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.05211557295782788</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.09549199999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.0579964732709505</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.119797</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.06324902010494303</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.146447</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.06777191408801952</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.175276</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.07147244367126217</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.206107</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.07427315300689262</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.238751</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.07612169983841448</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.273005</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.07699540246202502</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.308658</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.07690659823547313</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.345492</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.07589912858511765</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.383277</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.0740464183016423</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.421783</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.07144811014533453</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.46077</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.0682177379351675</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.06447630728366603</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.53923</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.06034871150286349</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.578217</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.05595269367257467</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.616723</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.05139412998728005</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.654508</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.04676628031488771</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.691342</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.04214978350412942</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.7269949999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.03760861837390687</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.761249</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.03319618697557988</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.793893</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.02895544663309145</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.824724</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.02492098726715349</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.853553</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.02112195903756597</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.880203</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.01758594305949756</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.904508</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.01433644197668487</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.92632</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.01139796148044112</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.945503</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.008792934797641662</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.96194</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.006543270889450678</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.975528</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.004668795992718405</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.986185</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.003190491699260172</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.9938439999999999</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.002121679248347373</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.998459</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.001476104965016639</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
         <v>1</v>
       </c>
-      <c r="B36" t="n">
-        <v>-3.299471521856087e-34</v>
+      <c r="B82" t="n">
+        <v>-0.00126</v>
       </c>
     </row>
   </sheetData>
